--- a/2026.0.0/CodeSystem-mii-cs-fall-supplement-act-encounter-code.xlsx
+++ b/2026.0.0/CodeSystem-mii-cs-fall-supplement-act-encounter-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-13T17:19:48+00:00</t>
+    <t>2025-12-13T17:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
